--- a/Тестирование/Zadanie2TestirovniePO.xlsx
+++ b/Тестирование/Zadanie2TestirovniePO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\221b\Desktop\vis43\Тестирование\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\vis43\Тестирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA4935-E459-454F-AE26-78A589ADF802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5160735D-00EB-49EB-BE49-A5FFAC2D9803}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16728" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>2 буквы, 64 буквы</t>
   </si>
   <si>
-    <t>0,1,65 букв</t>
-  </si>
-  <si>
     <t>пустая строка, недостаточное количество букв(1), более 64 букв, цифры, заглавные буквы</t>
   </si>
   <si>
@@ -111,16 +108,19 @@
     <t>31.12.1992, типо день до минимальной даты</t>
   </si>
   <si>
-    <t>от 10 до 1000</t>
-  </si>
-  <si>
-    <t>10 и 1000</t>
-  </si>
-  <si>
     <t>9 и 1001</t>
   </si>
   <si>
     <t>меньше 10 или больше 1000</t>
+  </si>
+  <si>
+    <t>1,65 букв</t>
+  </si>
+  <si>
+    <t>от 10.00 до 1000.00</t>
+  </si>
+  <si>
+    <t>9.99 и 1000.01</t>
   </si>
 </sst>
 </file>
@@ -636,20 +636,20 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -683,13 +683,13 @@
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -697,19 +697,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -717,19 +717,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -737,19 +737,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -767,7 +767,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
